--- a/data/trans_orig/P1410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44270F72-A12C-4F43-8977-5EAD50FBA2A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E12ABFB-F0B5-41F5-84E2-5F702F8B9D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A997391A-190C-4F24-9B58-906EDA730799}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA4648D-FB08-4BB6-BEC6-EDEF75A3059E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="453">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,1366 +92,1312 @@
     <t>Si</t>
   </si>
   <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
     <t>0,96%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>99,04%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>3,71%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>80,64%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>94,48%</t>
   </si>
   <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>94,92%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
 </sst>
 </file>
@@ -1863,7 +1809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8A188-3301-4FFE-9F89-73D8341A142A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A32D07-5A64-4A2A-A048-556C46963AED}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3098,13 +3044,13 @@
         <v>168910</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3119,13 +3065,13 @@
         <v>415223</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H26" s="7">
         <v>584</v>
@@ -3134,13 +3080,13 @@
         <v>595175</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M26" s="7">
         <v>1015</v>
@@ -3149,13 +3095,13 @@
         <v>1010398</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,7 +3175,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3244,7 +3190,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3259,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,13 +3220,13 @@
         <v>150161</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -3289,13 +3235,13 @@
         <v>126701</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M29" s="7">
         <v>277</v>
@@ -3304,13 +3250,13 @@
         <v>276862</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3271,13 @@
         <v>3126383</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H30" s="7">
         <v>3176</v>
@@ -3340,28 +3286,28 @@
         <v>3252497</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M30" s="7">
         <v>6234</v>
       </c>
       <c r="N30" s="7">
-        <v>6378878</v>
+        <v>6378879</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,7 +3349,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>26</v>
@@ -3417,7 +3363,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +3385,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5583DD9-31A5-42D4-832B-02BC094BCE64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AA6E51-158A-4ACD-97AA-9759A287DCAC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3456,7 +3402,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3569,7 +3515,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3599,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3560,13 @@
         <v>1912</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3647,10 +3593,10 @@
         <v>151</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,10 +3611,10 @@
         <v>452234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -3680,10 +3626,10 @@
         <v>425362</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>41</v>
@@ -3695,13 +3641,13 @@
         <v>877596</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,7 +3736,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3820,13 +3766,13 @@
         <v>2073</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3841,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3853,10 +3799,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>164</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3889,7 +3835,7 @@
         <v>167</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -3904,10 +3850,10 @@
         <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>169</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4026,13 +3972,13 @@
         <v>6940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -4041,13 +3987,13 @@
         <v>9724</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4056,13 +4002,13 @@
         <v>16664</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4023,13 @@
         <v>674923</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -4092,13 +4038,13 @@
         <v>699850</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -4107,13 +4053,13 @@
         <v>1374773</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,7 +4133,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4202,7 +4148,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4217,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4178,13 @@
         <v>12709</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4247,13 +4193,13 @@
         <v>5407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4262,13 +4208,13 @@
         <v>18117</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4283,13 +4229,13 @@
         <v>601908</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H18" s="7">
         <v>533</v>
@@ -4298,13 +4244,13 @@
         <v>608857</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M18" s="7">
         <v>1071</v>
@@ -4313,13 +4259,13 @@
         <v>1210763</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,7 +4354,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4438,13 +4384,13 @@
         <v>22722</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H21" s="7">
         <v>25</v>
@@ -4453,13 +4399,13 @@
         <v>26023</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>47</v>
@@ -4468,13 +4414,13 @@
         <v>48745</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4489,13 +4435,13 @@
         <v>406707</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>381</v>
@@ -4504,13 +4450,13 @@
         <v>421777</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>752</v>
@@ -4519,13 +4465,13 @@
         <v>828484</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4614,7 +4560,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4644,13 +4590,13 @@
         <v>85930</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -4659,13 +4605,13 @@
         <v>100850</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M25" s="7">
         <v>174</v>
@@ -4674,13 +4620,13 @@
         <v>186780</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,10 +4674,10 @@
         <v>239</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,7 +4751,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4820,7 +4766,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4835,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4850,13 +4796,13 @@
         <v>132288</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>243</v>
+        <v>125</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -4880,13 +4826,13 @@
         <v>281066</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4901,13 +4847,13 @@
         <v>3294491</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H30" s="7">
         <v>3155</v>
@@ -4916,13 +4862,13 @@
         <v>3405137</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M30" s="7">
         <v>6241</v>
@@ -4931,13 +4877,13 @@
         <v>6699628</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,7 +4939,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5015,7 +4961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EDDC13-4F5E-4694-8BB8-78B662658800}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074F149E-1A9B-4D89-870F-BDD22B4B4E5F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5032,7 +4978,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5160,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5190,13 +5136,13 @@
         <v>2153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5205,13 +5151,13 @@
         <v>2921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5220,13 +5166,13 @@
         <v>5073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>85</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,10 +5187,10 @@
         <v>417310</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -5256,13 +5202,13 @@
         <v>392834</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -5271,13 +5217,13 @@
         <v>810145</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5297,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5366,7 +5312,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5381,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5411,13 +5357,13 @@
         <v>3888</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5426,13 +5372,13 @@
         <v>3888</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>278</v>
+        <v>164</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>151</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,7 +5396,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -5462,13 +5408,13 @@
         <v>559656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>1142</v>
@@ -5477,13 +5423,13 @@
         <v>1150152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>156</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,7 +5503,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5608,7 +5554,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5617,13 +5563,13 @@
         <v>7142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5632,13 +5578,13 @@
         <v>9096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>19</v>
+        <v>172</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5656,7 +5602,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5668,13 +5614,13 @@
         <v>654244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>179</v>
       </c>
       <c r="M14" s="7">
         <v>1294</v>
@@ -5683,13 +5629,13 @@
         <v>1321387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,7 +5709,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>275</v>
+        <v>152</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5808,13 +5754,13 @@
         <v>12468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5823,13 +5769,13 @@
         <v>15744</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>289</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5838,13 +5784,13 @@
         <v>28212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +5805,13 @@
         <v>633580</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
         <v>587</v>
@@ -5874,28 +5820,28 @@
         <v>633333</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>59</v>
+        <v>297</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M18" s="7">
         <v>1157</v>
       </c>
       <c r="N18" s="7">
-        <v>1266913</v>
+        <v>1266914</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,7 +5883,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -5984,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5999,7 +5945,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +5960,13 @@
         <v>28654</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -6029,13 +5975,13 @@
         <v>16752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>311</v>
+        <v>205</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -6044,13 +5990,13 @@
         <v>45406</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6011,13 @@
         <v>449264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H22" s="7">
         <v>418</v>
@@ -6080,13 +6026,13 @@
         <v>480097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>319</v>
+        <v>214</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="M22" s="7">
         <v>818</v>
@@ -6095,13 +6041,13 @@
         <v>929361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6166,13 @@
         <v>82329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -6235,13 +6181,13 @@
         <v>113081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -6250,13 +6196,13 @@
         <v>195411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>113</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6217,13 @@
         <v>508999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="H26" s="7">
         <v>561</v>
@@ -6286,13 +6232,13 @@
         <v>664850</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="M26" s="7">
         <v>1100</v>
@@ -6301,13 +6247,13 @@
         <v>1173848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>341</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6381,7 +6327,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6396,7 +6342,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6411,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6372,13 @@
         <v>127557</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>131</v>
+        <v>335</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>343</v>
+        <v>130</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -6441,13 +6387,13 @@
         <v>159528</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>192</v>
+        <v>337</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="M29" s="7">
         <v>266</v>
@@ -6456,13 +6402,13 @@
         <v>287085</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>346</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6423,13 @@
         <v>3266793</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>349</v>
+        <v>313</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>350</v>
+        <v>138</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>141</v>
+        <v>339</v>
       </c>
       <c r="H30" s="7">
         <v>3200</v>
@@ -6492,13 +6438,13 @@
         <v>3385014</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>198</v>
+        <v>342</v>
       </c>
       <c r="M30" s="7">
         <v>6303</v>
@@ -6507,13 +6453,13 @@
         <v>6651807</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>353</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>354</v>
+        <v>316</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>355</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,7 +6515,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6591,7 +6537,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A848FF89-333F-4A45-8286-11E4CD5E4793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D342D3E2-FBFD-46CD-9C59-121012C890AE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6608,7 +6554,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6721,7 +6667,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6736,7 +6682,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6751,7 +6697,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6766,13 +6712,13 @@
         <v>3437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>346</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6781,13 +6727,13 @@
         <v>3366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6796,13 +6742,13 @@
         <v>6802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,10 +6763,10 @@
         <v>374242</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>166</v>
+        <v>352</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6832,10 +6778,10 @@
         <v>351591</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6847,10 +6793,10 @@
         <v>725834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>23</v>
@@ -6927,7 +6873,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6936,13 +6882,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6951,13 +6897,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6972,13 +6918,13 @@
         <v>2828</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6987,13 +6933,13 @@
         <v>3268</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>189</v>
+        <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>375</v>
+        <v>307</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -7002,13 +6948,13 @@
         <v>6096</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>376</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7023,10 +6969,10 @@
         <v>425568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -7038,13 +6984,13 @@
         <v>495310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>369</v>
       </c>
       <c r="M10" s="7">
         <v>757</v>
@@ -7053,13 +6999,13 @@
         <v>920878</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>382</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,7 +7079,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7142,13 +7088,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>384</v>
+        <v>248</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7160,10 +7106,10 @@
         <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7178,13 +7124,13 @@
         <v>6055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>162</v>
+        <v>17</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -7193,13 +7139,13 @@
         <v>3845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>389</v>
+        <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -7208,13 +7154,13 @@
         <v>9900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7229,13 +7175,13 @@
         <v>551197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>393</v>
+        <v>179</v>
       </c>
       <c r="H14" s="7">
         <v>838</v>
@@ -7244,13 +7190,13 @@
         <v>578913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -7259,13 +7205,13 @@
         <v>1130109</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7294,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7363,13 +7309,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7384,13 +7330,13 @@
         <v>21142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>387</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -7399,13 +7345,13 @@
         <v>15530</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>293</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7414,13 +7360,13 @@
         <v>36672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7435,13 +7381,13 @@
         <v>701472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>140</v>
+        <v>392</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H18" s="7">
         <v>1114</v>
@@ -7450,13 +7396,13 @@
         <v>731324</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>100</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="M18" s="7">
         <v>1756</v>
@@ -7465,13 +7411,13 @@
         <v>1432795</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7500,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7569,13 +7515,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,13 +7536,13 @@
         <v>51297</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -7605,13 +7551,13 @@
         <v>18944</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -7620,13 +7566,13 @@
         <v>70241</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7641,13 +7587,13 @@
         <v>547789</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>967</v>
@@ -7656,13 +7602,13 @@
         <v>573774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>429</v>
+        <v>297</v>
       </c>
       <c r="M22" s="7">
         <v>1572</v>
@@ -7671,13 +7617,13 @@
         <v>1121563</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>416</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7766,7 +7712,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>432</v>
+        <v>372</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7781,7 +7727,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7742,13 @@
         <v>101982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -7811,13 +7757,13 @@
         <v>118329</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="M25" s="7">
         <v>371</v>
@@ -7826,13 +7772,13 @@
         <v>220310</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7847,13 +7793,13 @@
         <v>594995</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="H26" s="7">
         <v>1491</v>
@@ -7862,13 +7808,13 @@
         <v>906555</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>447</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
         <v>2361</v>
@@ -7877,13 +7823,13 @@
         <v>1501551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7957,7 +7903,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7969,10 +7915,10 @@
         <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7981,13 +7927,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>305</v>
+        <v>54</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>452</v>
+        <v>384</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>453</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8002,13 +7948,13 @@
         <v>186741</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="H29" s="7">
         <v>282</v>
@@ -8017,13 +7963,13 @@
         <v>163281</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -8032,13 +7978,13 @@
         <v>350022</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8053,13 +7999,13 @@
         <v>3195263</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="H30" s="7">
         <v>5073</v>
@@ -8068,13 +8014,13 @@
         <v>3637466</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="M30" s="7">
         <v>8202</v>
@@ -8083,13 +8029,13 @@
         <v>6832730</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8145,7 +8091,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E12ABFB-F0B5-41F5-84E2-5F702F8B9D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED13779F-CC43-41FD-BF79-6171FF507B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6CA4648D-FB08-4BB6-BEC6-EDEF75A3059E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9ED3E745-5E55-4CC4-A24F-4F52FD47BE1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="463">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -92,1140 +92,1179 @@
     <t>Si</t>
   </si>
   <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,88%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,81%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>98,91%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,88%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
   </si>
   <si>
     <t>99,16%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
+    <t>99,91%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
   </si>
   <si>
     <t>0,44%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>96,92%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
     <t>98,51%</t>
   </si>
   <si>
@@ -1244,9 +1283,6 @@
     <t>2,3%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
     <t>8,56%</t>
   </si>
   <si>
@@ -1262,9 +1298,6 @@
     <t>2,14%</t>
   </si>
   <si>
-    <t>4,41%</t>
-  </si>
-  <si>
     <t>5,88%</t>
   </si>
   <si>
@@ -1362,9 +1395,6 @@
   </si>
   <si>
     <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
   </si>
   <si>
     <t>4,85%</t>
@@ -1809,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A32D07-5A64-4A2A-A048-556C46963AED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D3D869-9D2D-482B-BE91-3C3695466FA3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2620,10 +2650,10 @@
         <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -2632,13 +2662,13 @@
         <v>27565</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2683,13 @@
         <v>503780</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" s="7">
         <v>490</v>
@@ -2668,13 +2698,13 @@
         <v>503444</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>959</v>
@@ -2683,13 +2713,13 @@
         <v>1007224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2775,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2763,7 +2793,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2778,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2793,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2838,13 @@
         <v>41949</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H21" s="7">
         <v>19</v>
@@ -2823,13 +2853,13 @@
         <v>20058</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M21" s="7">
         <v>62</v>
@@ -2838,13 +2868,13 @@
         <v>62007</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,13 +2889,13 @@
         <v>344761</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>377</v>
@@ -2874,13 +2904,13 @@
         <v>383928</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>726</v>
@@ -2889,13 +2919,13 @@
         <v>728689</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,7 +2981,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2969,7 +2999,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2999,7 +3029,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +3044,13 @@
         <v>87243</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>77</v>
@@ -3029,13 +3059,13 @@
         <v>81667</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>169</v>
@@ -3044,13 +3074,13 @@
         <v>168910</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3065,13 +3095,13 @@
         <v>415223</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>584</v>
@@ -3080,13 +3110,13 @@
         <v>595175</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>1015</v>
@@ -3095,13 +3125,13 @@
         <v>1010398</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,7 +3205,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3190,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3205,7 +3235,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3250,13 @@
         <v>150161</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="H29" s="7">
         <v>121</v>
@@ -3235,13 +3265,13 @@
         <v>126701</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M29" s="7">
         <v>277</v>
@@ -3250,13 +3280,13 @@
         <v>276862</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,16 +3298,16 @@
         <v>3058</v>
       </c>
       <c r="D30" s="7">
-        <v>3126383</v>
+        <v>3126382</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H30" s="7">
         <v>3176</v>
@@ -3286,13 +3316,13 @@
         <v>3252497</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M30" s="7">
         <v>6234</v>
@@ -3301,13 +3331,13 @@
         <v>6378879</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3349,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>26</v>
@@ -3363,7 +3393,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -3385,7 +3415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0AA6E51-158A-4ACD-97AA-9759A287DCAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D62A2BE9-5036-45AA-8415-814B9B4B65A9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3402,7 +3432,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3515,7 +3545,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3545,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3590,13 @@
         <v>1912</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>147</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3575,13 +3605,13 @@
         <v>4868</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3590,13 +3620,13 @@
         <v>6780</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,10 +3641,10 @@
         <v>452234</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -3626,10 +3656,10 @@
         <v>425362</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>41</v>
@@ -3641,13 +3671,13 @@
         <v>877596</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3766,13 +3796,13 @@
         <v>2073</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -3787,7 +3817,7 @@
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>17</v>
+        <v>165</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -3799,10 +3829,10 @@
         <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3817,10 +3847,10 @@
         <v>685014</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -3832,10 +3862,10 @@
         <v>608348</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>23</v>
@@ -3847,13 +3877,13 @@
         <v>1293362</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>171</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,13 +4002,13 @@
         <v>6940</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3987,13 +4017,13 @@
         <v>9724</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -4002,13 +4032,13 @@
         <v>16664</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>174</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,7 +4053,7 @@
         <v>674923</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>178</v>
@@ -4044,7 +4074,7 @@
         <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>60</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -4053,13 +4083,13 @@
         <v>1374773</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4163,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4148,7 +4178,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4163,7 +4193,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4208,13 @@
         <v>12709</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -4193,13 +4223,13 @@
         <v>5407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>49</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4208,13 +4238,13 @@
         <v>18117</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4259,13 @@
         <v>601908</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H18" s="7">
         <v>533</v>
@@ -4244,7 +4274,7 @@
         <v>608857</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>199</v>
@@ -4321,7 +4351,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4339,7 +4369,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4369,7 +4399,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,7 +4557,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4575,7 +4605,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,7 +4781,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4766,7 +4796,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4781,7 +4811,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4832,7 @@
         <v>243</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="H29" s="7">
         <v>140</v>
@@ -4811,13 +4841,13 @@
         <v>148779</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M29" s="7">
         <v>263</v>
@@ -4826,13 +4856,13 @@
         <v>281066</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +4877,13 @@
         <v>3294491</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>252</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="H30" s="7">
         <v>3155</v>
@@ -4862,13 +4892,13 @@
         <v>3405137</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="M30" s="7">
         <v>6241</v>
@@ -4877,13 +4907,13 @@
         <v>6699628</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,7 +4969,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4961,7 +4991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{074F149E-1A9B-4D89-870F-BDD22B4B4E5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B99908C7-0A21-4BE3-926A-3112AC5F7172}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4978,7 +5008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5091,7 +5121,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5121,7 +5151,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,13 +5166,13 @@
         <v>2153</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5151,13 +5181,13 @@
         <v>2921</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>261</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>5</v>
@@ -5166,13 +5196,13 @@
         <v>5073</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,10 +5217,10 @@
         <v>417310</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -5202,13 +5232,13 @@
         <v>392834</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>267</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M6" s="7">
         <v>792</v>
@@ -5217,13 +5247,13 @@
         <v>810145</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,7 +5327,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5312,7 +5342,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5327,7 +5357,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,7 +5378,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -5357,13 +5387,13 @@
         <v>3888</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5372,13 +5402,13 @@
         <v>3888</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>164</v>
+        <v>277</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,7 +5426,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>26</v>
@@ -5408,13 +5438,13 @@
         <v>559656</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M10" s="7">
         <v>1142</v>
@@ -5423,13 +5453,13 @@
         <v>1150152</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>168</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,7 +5533,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5554,7 +5584,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -5563,13 +5593,13 @@
         <v>7142</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -5578,13 +5608,13 @@
         <v>9096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>172</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>163</v>
+        <v>289</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,7 +5632,7 @@
         <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>23</v>
@@ -5614,13 +5644,13 @@
         <v>654244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>179</v>
+        <v>292</v>
       </c>
       <c r="M14" s="7">
         <v>1294</v>
@@ -5629,13 +5659,13 @@
         <v>1321387</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>182</v>
+        <v>293</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>294</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,7 +5739,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5739,7 +5769,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,13 +5784,13 @@
         <v>12468</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>282</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -5769,13 +5799,13 @@
         <v>15744</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="M17" s="7">
         <v>27</v>
@@ -5784,13 +5814,13 @@
         <v>28212</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,13 +5835,13 @@
         <v>633580</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>285</v>
+        <v>24</v>
       </c>
       <c r="H18" s="7">
         <v>587</v>
@@ -5820,28 +5850,28 @@
         <v>633333</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M18" s="7">
         <v>1157</v>
       </c>
       <c r="N18" s="7">
-        <v>1266914</v>
+        <v>1266913</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,7 +5913,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -5897,7 +5927,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5930,7 +5960,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5945,7 +5975,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,13 +5990,13 @@
         <v>28654</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H21" s="7">
         <v>15</v>
@@ -5975,13 +6005,13 @@
         <v>16752</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>205</v>
+        <v>314</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -5990,13 +6020,13 @@
         <v>45406</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>309</v>
+        <v>243</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +6041,13 @@
         <v>449264</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="H22" s="7">
         <v>418</v>
@@ -6026,13 +6056,13 @@
         <v>480097</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M22" s="7">
         <v>818</v>
@@ -6041,13 +6071,13 @@
         <v>929361</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,7 +6133,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6166,13 +6196,13 @@
         <v>82329</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -6181,13 +6211,13 @@
         <v>113081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>182</v>
@@ -6196,13 +6226,13 @@
         <v>195411</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>113</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6247,13 @@
         <v>508999</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="H26" s="7">
         <v>561</v>
@@ -6232,13 +6262,13 @@
         <v>664850</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M26" s="7">
         <v>1100</v>
@@ -6247,13 +6277,13 @@
         <v>1173848</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>122</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,7 +6357,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6342,7 +6372,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6357,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6402,13 @@
         <v>127557</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="H29" s="7">
         <v>138</v>
@@ -6387,13 +6417,13 @@
         <v>159528</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="M29" s="7">
         <v>266</v>
@@ -6405,10 +6435,10 @@
         <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6423,13 +6453,13 @@
         <v>3266793</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="H30" s="7">
         <v>3200</v>
@@ -6438,13 +6468,13 @@
         <v>3385014</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="M30" s="7">
         <v>6303</v>
@@ -6456,10 +6486,10 @@
         <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>142</v>
+        <v>352</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6515,7 +6545,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6537,7 +6567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D342D3E2-FBFD-46CD-9C59-121012C890AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64460A57-3056-4E8B-BDF1-B00C47DE4CE0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6554,7 +6584,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6667,7 +6697,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6682,7 +6712,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6697,7 +6727,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6742,13 @@
         <v>3437</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -6727,13 +6757,13 @@
         <v>3366</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -6742,13 +6772,13 @@
         <v>6802</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6763,10 +6793,10 @@
         <v>374242</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>23</v>
@@ -6778,10 +6808,10 @@
         <v>351591</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>23</v>
@@ -6793,10 +6823,10 @@
         <v>725834</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>23</v>
@@ -6873,7 +6903,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6882,13 +6912,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6897,13 +6927,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6948,13 @@
         <v>2828</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -6933,13 +6963,13 @@
         <v>3268</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>363</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -6948,13 +6978,13 @@
         <v>6096</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6969,10 +6999,10 @@
         <v>425568</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>23</v>
@@ -6984,13 +7014,13 @@
         <v>495310</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="M10" s="7">
         <v>757</v>
@@ -6999,13 +7029,13 @@
         <v>920878</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>381</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,7 +7109,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7088,13 +7118,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>248</v>
+        <v>383</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7106,10 +7136,10 @@
         <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7154,13 @@
         <v>6055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -7139,13 +7169,13 @@
         <v>3845</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="M13" s="7">
         <v>12</v>
@@ -7154,13 +7184,13 @@
         <v>9900</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>389</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>33</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>377</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7175,10 +7205,10 @@
         <v>551197</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>179</v>
@@ -7190,13 +7220,13 @@
         <v>578913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1379</v>
@@ -7205,10 +7235,10 @@
         <v>1130109</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>61</v>
@@ -7294,7 +7324,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7309,13 +7339,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7360,13 @@
         <v>21142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -7345,13 +7375,13 @@
         <v>15530</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>400</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -7360,13 +7390,13 @@
         <v>36672</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>389</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>176</v>
+        <v>401</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7411,13 @@
         <v>701472</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="H18" s="7">
         <v>1114</v>
@@ -7396,13 +7426,13 @@
         <v>731324</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>100</v>
+        <v>407</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="M18" s="7">
         <v>1756</v>
@@ -7411,13 +7441,13 @@
         <v>1432795</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7473,7 +7503,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7500,13 +7530,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7515,13 +7545,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7566,13 @@
         <v>51297</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="H21" s="7">
         <v>31</v>
@@ -7551,13 +7581,13 @@
         <v>18944</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>407</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>88</v>
@@ -7566,13 +7596,13 @@
         <v>70241</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7617,13 @@
         <v>547789</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="H22" s="7">
         <v>967</v>
@@ -7602,13 +7632,13 @@
         <v>573774</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="M22" s="7">
         <v>1572</v>
@@ -7617,13 +7647,13 @@
         <v>1121563</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,7 +7709,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7712,7 +7742,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7727,7 +7757,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7772,13 @@
         <v>101982</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>214</v>
@@ -7757,13 +7787,13 @@
         <v>118329</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>371</v>
@@ -7772,13 +7802,13 @@
         <v>220310</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7823,13 @@
         <v>594995</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>1491</v>
@@ -7808,13 +7838,13 @@
         <v>906555</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M26" s="7">
         <v>2361</v>
@@ -7823,13 +7853,13 @@
         <v>1501551</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,7 +7933,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7915,10 +7945,10 @@
         <v>53</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7927,13 +7957,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>54</v>
+        <v>286</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7948,13 +7978,13 @@
         <v>186741</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="H29" s="7">
         <v>282</v>
@@ -7963,13 +7993,13 @@
         <v>163281</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>441</v>
+        <v>247</v>
       </c>
       <c r="M29" s="7">
         <v>526</v>
@@ -7978,13 +8008,13 @@
         <v>350022</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,13 +8029,13 @@
         <v>3195263</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="H30" s="7">
         <v>5073</v>
@@ -8014,13 +8044,13 @@
         <v>3637466</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="M30" s="7">
         <v>8202</v>
@@ -8032,10 +8062,10 @@
         <v>214</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8091,7 +8121,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1410-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75D1CAD6-7084-4729-9780-04BD0BEA5E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{913884EB-F52B-4272-A9A5-B1265594C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BF591A7B-3E02-4545-A911-65C0B2AA6367}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{68054CAF-0D1A-4024-A121-633C4390C18F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="504">
   <si>
     <t>Población con diagnóstico de trastornos cardíacos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -110,7 +110,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,38%</t>
@@ -161,7 +161,7 @@
     <t>99,17%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,29%</t>
@@ -212,7 +212,7 @@
     <t>99,57%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,96%</t>
@@ -263,7 +263,7 @@
     <t>98,2%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>10,85%</t>
@@ -320,61 +320,118 @@
     <t>93,89%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>4,58%</t>
@@ -659,52 +716,112 @@
     <t>95,87%</t>
   </si>
   <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>3,86%</t>
@@ -959,379 +1076,481 @@
     <t>96,64%</t>
   </si>
   <si>
-    <t>13,92%</t>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>85,99%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>11,17%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
   </si>
   <si>
     <t>88,83%</t>
   </si>
   <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos cardíacos en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EAB983-A531-4A2F-A7AB-238226F45A72}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E38A3E6-35DD-4A7F-9FAD-7B4E77C7E5E5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2636,10 +2855,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7">
-        <v>87243</v>
+        <v>41669</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>94</v>
@@ -2651,10 +2870,10 @@
         <v>96</v>
       </c>
       <c r="H19" s="7">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I19" s="7">
-        <v>81667</v>
+        <v>29074</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>97</v>
@@ -2666,10 +2885,10 @@
         <v>99</v>
       </c>
       <c r="M19" s="7">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="N19" s="7">
-        <v>168910</v>
+        <v>70743</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>100</v>
@@ -2687,10 +2906,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>431</v>
+        <v>259</v>
       </c>
       <c r="D20" s="7">
-        <v>415223</v>
+        <v>250914</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>103</v>
@@ -2702,10 +2921,10 @@
         <v>105</v>
       </c>
       <c r="H20" s="7">
-        <v>584</v>
+        <v>340</v>
       </c>
       <c r="I20" s="7">
-        <v>595175</v>
+        <v>313860</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>106</v>
@@ -2717,10 +2936,10 @@
         <v>108</v>
       </c>
       <c r="M20" s="7">
-        <v>1015</v>
+        <v>599</v>
       </c>
       <c r="N20" s="7">
-        <v>1010398</v>
+        <v>564774</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>109</v>
@@ -2738,10 +2957,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -2753,10 +2972,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -2768,10 +2987,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -2785,55 +3004,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="D22" s="7">
-        <v>150161</v>
+        <v>45575</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H22" s="7">
+        <v>46</v>
+      </c>
+      <c r="I22" s="7">
+        <v>52593</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22" s="7">
+        <v>94</v>
+      </c>
+      <c r="N22" s="7">
+        <v>98167</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="I22" s="7">
-        <v>126701</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M22" s="7">
-        <v>277</v>
-      </c>
-      <c r="N22" s="7">
-        <v>276862</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,49 +3061,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3058</v>
+        <v>172</v>
       </c>
       <c r="D23" s="7">
-        <v>3126383</v>
+        <v>164308</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H23" s="7">
-        <v>3176</v>
+        <v>244</v>
       </c>
       <c r="I23" s="7">
-        <v>3252497</v>
+        <v>281315</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M23" s="7">
-        <v>6234</v>
+        <v>416</v>
       </c>
       <c r="N23" s="7">
-        <v>6378878</v>
+        <v>445624</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,63 +3112,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>156</v>
+      </c>
+      <c r="D25" s="7">
+        <v>150161</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="7">
+        <v>121</v>
+      </c>
+      <c r="I25" s="7">
+        <v>126701</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="M25" s="7">
+        <v>277</v>
+      </c>
+      <c r="N25" s="7">
+        <v>276862</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3058</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3126382</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3176</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3252496</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6234</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6378879</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2962,8 +3337,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCCF2843-CA34-4397-B9AB-188B094F26AF}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EA3D68-6A7A-4BFA-9A52-3727B5E41AB3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2979,7 +3354,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3086,7 +3461,7 @@
         <v>1912</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
@@ -3101,13 +3476,13 @@
         <v>4868</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -3116,13 +3491,13 @@
         <v>6780</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3512,7 @@
         <v>452234</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>55</v>
@@ -3152,10 +3527,10 @@
         <v>425362</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>35</v>
@@ -3167,13 +3542,13 @@
         <v>877596</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3616,13 @@
         <v>2073</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3256,13 +3631,13 @@
         <v>1907</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -3271,13 +3646,13 @@
         <v>3980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,10 +3667,10 @@
         <v>685014</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3307,10 +3682,10 @@
         <v>608348</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -3322,13 +3697,13 @@
         <v>1293362</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3771,13 @@
         <v>6940</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -3411,13 +3786,13 @@
         <v>9724</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -3426,13 +3801,13 @@
         <v>16664</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,10 +3822,10 @@
         <v>674923</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>35</v>
@@ -3462,13 +3837,13 @@
         <v>699850</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="M11" s="7">
         <v>1301</v>
@@ -3477,13 +3852,13 @@
         <v>1374773</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3926,13 @@
         <v>12709</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3566,10 +3941,10 @@
         <v>5407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>64</v>
@@ -3581,13 +3956,13 @@
         <v>18117</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3977,13 @@
         <v>601908</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H14" s="7">
         <v>533</v>
@@ -3617,13 +3992,13 @@
         <v>608857</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="M14" s="7">
         <v>1071</v>
@@ -3632,13 +4007,13 @@
         <v>1210763</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,13 +4081,13 @@
         <v>22722</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="H16" s="7">
         <v>25</v>
@@ -3721,13 +4096,13 @@
         <v>26023</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>47</v>
@@ -3736,13 +4111,13 @@
         <v>48745</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +4132,13 @@
         <v>406707</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H17" s="7">
         <v>381</v>
@@ -3772,13 +4147,13 @@
         <v>421777</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>752</v>
@@ -3787,13 +4162,13 @@
         <v>828484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,49 +4230,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="D19" s="7">
-        <v>85930</v>
+        <v>31595</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H19" s="7">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="I19" s="7">
-        <v>100850</v>
+        <v>29317</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="M19" s="7">
-        <v>174</v>
+        <v>60</v>
       </c>
       <c r="N19" s="7">
-        <v>186780</v>
+        <v>60913</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>102</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,49 +4281,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>424</v>
+        <v>251</v>
       </c>
       <c r="D20" s="7">
-        <v>473707</v>
+        <v>278191</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
-        <v>599</v>
+        <v>315</v>
       </c>
       <c r="I20" s="7">
-        <v>640942</v>
+        <v>324679</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
-        <v>1023</v>
+        <v>566</v>
       </c>
       <c r="N20" s="7">
-        <v>1114649</v>
+        <v>602869</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3957,10 +4332,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -3972,10 +4347,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -3987,10 +4362,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -4004,55 +4379,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>123</v>
+        <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>132288</v>
+        <v>54335</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H22" s="7">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="I22" s="7">
-        <v>148779</v>
+        <v>71532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="M22" s="7">
-        <v>263</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
-        <v>281066</v>
+        <v>125867</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,49 +4436,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3086</v>
+        <v>173</v>
       </c>
       <c r="D23" s="7">
-        <v>3294491</v>
+        <v>195516</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="H23" s="7">
-        <v>3155</v>
+        <v>284</v>
       </c>
       <c r="I23" s="7">
-        <v>3405137</v>
+        <v>316264</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="M23" s="7">
-        <v>6241</v>
+        <v>457</v>
       </c>
       <c r="N23" s="7">
-        <v>6699628</v>
+        <v>511780</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4112,63 +4487,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>123</v>
+      </c>
+      <c r="D25" s="7">
+        <v>132288</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H25" s="7">
+        <v>140</v>
+      </c>
+      <c r="I25" s="7">
+        <v>148779</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="M25" s="7">
+        <v>263</v>
+      </c>
+      <c r="N25" s="7">
+        <v>281066</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3086</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3294491</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3155</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3405137</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6241</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6699628</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553916</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980694</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4181,8 +4712,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{616DC67F-356A-4E31-BB60-CD6DDAB1D348}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A92D42-B4B3-482A-A10C-4293B4C83C64}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4198,7 +4729,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4305,13 +4836,13 @@
         <v>2153</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -4320,13 +4851,13 @@
         <v>2921</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4335,13 +4866,13 @@
         <v>5073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,10 +4887,10 @@
         <v>417310</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -4371,13 +4902,13 @@
         <v>392834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>792</v>
@@ -4386,13 +4917,13 @@
         <v>810145</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>256</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4463,10 +4994,10 @@
         <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>257</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="H7" s="7">
         <v>4</v>
@@ -4475,10 +5006,10 @@
         <v>3888</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>59</v>
@@ -4490,13 +5021,13 @@
         <v>3888</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4514,7 +5045,7 @@
         <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>22</v>
@@ -4526,13 +5057,13 @@
         <v>559656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>68</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
       <c r="M8" s="7">
         <v>1142</v>
@@ -4541,13 +5072,13 @@
         <v>1150152</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4621,7 +5152,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -4630,13 +5161,13 @@
         <v>7142</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>306</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -4648,10 +5179,10 @@
         <v>15</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>269</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4669,7 +5200,7 @@
         <v>49</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -4681,13 +5212,13 @@
         <v>654244</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -4699,10 +5230,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4770,13 +5301,13 @@
         <v>12468</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -4788,10 +5319,10 @@
         <v>45</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>315</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -4800,13 +5331,13 @@
         <v>28212</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4821,13 +5352,13 @@
         <v>633580</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>270</v>
+        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>587</v>
@@ -4839,10 +5370,10 @@
         <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="M14" s="7">
         <v>1157</v>
@@ -4851,13 +5382,13 @@
         <v>1266913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4925,13 +5456,13 @@
         <v>28654</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4940,13 +5471,13 @@
         <v>16752</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4955,13 +5486,13 @@
         <v>45406</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,13 +5507,13 @@
         <v>449264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="H17" s="7">
         <v>418</v>
@@ -4991,13 +5522,13 @@
         <v>480097</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="M17" s="7">
         <v>818</v>
@@ -5006,13 +5537,13 @@
         <v>929361</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,49 +5605,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>82329</v>
+        <v>41227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="H19" s="7">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="I19" s="7">
-        <v>113081</v>
+        <v>43891</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="M19" s="7">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="N19" s="7">
-        <v>195411</v>
+        <v>85118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,49 +5656,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>539</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7">
-        <v>508999</v>
+        <v>293103</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="H20" s="7">
-        <v>561</v>
+        <v>312</v>
       </c>
       <c r="I20" s="7">
-        <v>664850</v>
+        <v>333871</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="M20" s="7">
-        <v>1100</v>
+        <v>596</v>
       </c>
       <c r="N20" s="7">
-        <v>1173848</v>
+        <v>626974</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,10 +5707,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -5191,10 +5722,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -5206,10 +5737,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -5223,55 +5754,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="D22" s="7">
-        <v>127557</v>
+        <v>41102</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>116</v>
+        <v>364</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="H22" s="7">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="I22" s="7">
-        <v>159528</v>
+        <v>69190</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>174</v>
+        <v>367</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="M22" s="7">
-        <v>266</v>
+        <v>99</v>
       </c>
       <c r="N22" s="7">
-        <v>287085</v>
+        <v>110293</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5280,49 +5811,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3103</v>
+        <v>255</v>
       </c>
       <c r="D23" s="7">
-        <v>3266793</v>
+        <v>215896</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
-        <v>3200</v>
+        <v>249</v>
       </c>
       <c r="I23" s="7">
-        <v>3385014</v>
+        <v>330979</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
-        <v>6303</v>
+        <v>504</v>
       </c>
       <c r="N23" s="7">
-        <v>6651807</v>
+        <v>546874</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>260</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,63 +5862,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>128</v>
+      </c>
+      <c r="D25" s="7">
+        <v>127557</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H25" s="7">
+        <v>138</v>
+      </c>
+      <c r="I25" s="7">
+        <v>159528</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M25" s="7">
+        <v>266</v>
+      </c>
+      <c r="N25" s="7">
+        <v>287085</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3103</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3266793</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3200</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3385014</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6303</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6651807</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5400,8 +6087,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B02773C-7B8B-41BF-A8DC-473CCD7C2803}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059DCFE8-D124-4D60-ADC7-09F1EEF3BA6C}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5417,7 +6104,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5521,46 +6208,46 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3437</v>
+        <v>4355</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>339</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>3366</v>
+        <v>2677</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>341</v>
+        <v>264</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>6802</v>
+        <v>7031</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +6259,13 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>374242</v>
+        <v>395632</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -5587,13 +6274,13 @@
         <v>206</v>
       </c>
       <c r="I5" s="7">
-        <v>351591</v>
+        <v>310523</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>345</v>
+        <v>206</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -5602,13 +6289,13 @@
         <v>377</v>
       </c>
       <c r="N5" s="7">
-        <v>725834</v>
+        <v>706156</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>347</v>
+        <v>398</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -5623,7 +6310,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>22</v>
@@ -5638,7 +6325,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>22</v>
@@ -5653,7 +6340,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>22</v>
@@ -5676,46 +6363,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2828</v>
+        <v>2673</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>349</v>
+        <v>400</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>401</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
       </c>
       <c r="I7" s="7">
-        <v>3268</v>
+        <v>3366</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>349</v>
+        <v>402</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>403</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>6096</v>
+        <v>6039</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>349</v>
+        <v>405</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +6414,13 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>425568</v>
+        <v>420874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>408</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -5742,31 +6429,31 @@
         <v>457</v>
       </c>
       <c r="I8" s="7">
-        <v>495309</v>
+        <v>508138</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="M8" s="7">
         <v>757</v>
       </c>
       <c r="N8" s="7">
-        <v>920877</v>
+        <v>929012</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,7 +6465,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>22</v>
@@ -5793,7 +6480,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>22</v>
@@ -5808,7 +6495,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>22</v>
@@ -5831,46 +6518,46 @@
         <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>6055</v>
+        <v>5878</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>3845</v>
+        <v>3732</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>349</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>9900</v>
+        <v>9610</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>47</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,46 +6569,46 @@
         <v>541</v>
       </c>
       <c r="D11" s="7">
-        <v>551197</v>
+        <v>530460</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>153</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>838</v>
       </c>
       <c r="I11" s="7">
-        <v>578913</v>
+        <v>538067</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>354</v>
+        <v>302</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>49</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1379</v>
       </c>
       <c r="N11" s="7">
-        <v>1130110</v>
+        <v>1068527</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,7 +6620,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>22</v>
@@ -5948,7 +6635,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>22</v>
@@ -5963,7 +6650,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140010</v>
+        <v>1078137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>22</v>
@@ -5986,46 +6673,46 @@
         <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>21142</v>
+        <v>20424</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>369</v>
+        <v>428</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>370</v>
+        <v>429</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>26</v>
       </c>
       <c r="I13" s="7">
-        <v>15530</v>
+        <v>14431</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>372</v>
+        <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>373</v>
+        <v>430</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
       </c>
       <c r="N13" s="7">
-        <v>36672</v>
+        <v>34855</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>317</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>431</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,46 +6724,46 @@
         <v>642</v>
       </c>
       <c r="D14" s="7">
-        <v>701472</v>
+        <v>866042</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>125</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>1114</v>
       </c>
       <c r="I14" s="7">
-        <v>731324</v>
+        <v>698067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>435</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>51</v>
       </c>
       <c r="M14" s="7">
         <v>1756</v>
       </c>
       <c r="N14" s="7">
-        <v>1432796</v>
+        <v>1564110</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>167</v>
+        <v>324</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>376</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6088,7 +6775,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722614</v>
+        <v>886466</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>22</v>
@@ -6103,7 +6790,7 @@
         <v>1140</v>
       </c>
       <c r="I15" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>22</v>
@@ -6118,7 +6805,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1469468</v>
+        <v>1598965</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>22</v>
@@ -6141,46 +6828,46 @@
         <v>57</v>
       </c>
       <c r="D16" s="7">
-        <v>51297</v>
+        <v>48539</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>438</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>439</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>440</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
       </c>
       <c r="I16" s="7">
-        <v>18944</v>
+        <v>17510</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>442</v>
       </c>
       <c r="M16" s="7">
         <v>88</v>
       </c>
       <c r="N16" s="7">
-        <v>70241</v>
+        <v>66049</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>444</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,46 +6879,46 @@
         <v>605</v>
       </c>
       <c r="D17" s="7">
-        <v>547789</v>
+        <v>511698</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="H17" s="7">
         <v>967</v>
       </c>
       <c r="I17" s="7">
-        <v>573774</v>
+        <v>526586</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>336</v>
+        <v>449</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="M17" s="7">
         <v>1572</v>
       </c>
       <c r="N17" s="7">
-        <v>1121563</v>
+        <v>1038284</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6243,7 +6930,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>22</v>
@@ -6258,7 +6945,7 @@
         <v>998</v>
       </c>
       <c r="I18" s="7">
-        <v>592718</v>
+        <v>544096</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>22</v>
@@ -6273,7 +6960,7 @@
         <v>1660</v>
       </c>
       <c r="N18" s="7">
-        <v>1191804</v>
+        <v>1104333</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>22</v>
@@ -6293,49 +6980,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="D19" s="7">
-        <v>101982</v>
+        <v>35785</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="H19" s="7">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="I19" s="7">
-        <v>118329</v>
+        <v>26000</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="M19" s="7">
-        <v>371</v>
+        <v>112</v>
       </c>
       <c r="N19" s="7">
-        <v>220310</v>
+        <v>61785</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,49 +7031,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>870</v>
+        <v>511</v>
       </c>
       <c r="D20" s="7">
-        <v>594995</v>
+        <v>331662</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="H20" s="7">
-        <v>1491</v>
+        <v>771</v>
       </c>
       <c r="I20" s="7">
-        <v>906555</v>
+        <v>581188</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="M20" s="7">
-        <v>2361</v>
+        <v>1282</v>
       </c>
       <c r="N20" s="7">
-        <v>1501551</v>
+        <v>912849</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>414</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,10 +7082,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>22</v>
@@ -6410,10 +7097,10 @@
         <v>22</v>
       </c>
       <c r="H21" s="7">
-        <v>1705</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024884</v>
+        <v>607188</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>22</v>
@@ -6425,10 +7112,10 @@
         <v>22</v>
       </c>
       <c r="M21" s="7">
-        <v>2732</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721861</v>
+        <v>974634</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>22</v>
@@ -6442,55 +7129,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="D22" s="7">
-        <v>186741</v>
+        <v>59306</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>415</v>
+        <v>472</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>416</v>
+        <v>473</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="H22" s="7">
-        <v>282</v>
+        <v>160</v>
       </c>
       <c r="I22" s="7">
-        <v>163281</v>
+        <v>79879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>119</v>
+        <v>476</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="M22" s="7">
-        <v>526</v>
+        <v>259</v>
       </c>
       <c r="N22" s="7">
-        <v>350022</v>
+        <v>139185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>420</v>
+        <v>478</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>421</v>
+        <v>479</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6499,49 +7186,49 @@
         <v>16</v>
       </c>
       <c r="C23" s="7">
-        <v>3129</v>
+        <v>359</v>
       </c>
       <c r="D23" s="7">
-        <v>3195263</v>
+        <v>223453</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="H23" s="7">
-        <v>5073</v>
+        <v>720</v>
       </c>
       <c r="I23" s="7">
-        <v>3637467</v>
+        <v>345553</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>129</v>
+        <v>486</v>
       </c>
       <c r="M23" s="7">
-        <v>8202</v>
+        <v>1079</v>
       </c>
       <c r="N23" s="7">
-        <v>6832729</v>
+        <v>569006</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>487</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6550,63 +7237,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425432</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708191</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>244</v>
+      </c>
+      <c r="D25" s="7">
+        <v>176960</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H25" s="7">
+        <v>282</v>
+      </c>
+      <c r="I25" s="7">
+        <v>147595</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M25" s="7">
+        <v>526</v>
+      </c>
+      <c r="N25" s="7">
+        <v>324555</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3129</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3279821</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5073</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3508123</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8202</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6787944</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3373</v>
       </c>
-      <c r="D24" s="7">
-        <v>3382004</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3456781</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="7">
         <v>5355</v>
       </c>
-      <c r="I24" s="7">
-        <v>3800748</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3655718</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7">
         <v>8728</v>
       </c>
-      <c r="N24" s="7">
-        <v>7182751</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>130</v>
+      <c r="N27" s="7">
+        <v>7112499</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
